--- a/webscraper_details/Pages to Crawl.xlsx
+++ b/webscraper_details/Pages to Crawl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://changiairport.sharepoint.com/sites/CXxOSTChatbot997/Shared Documents/General/MVP/Materials for Knowledge Database/Attractions, Facilities &amp; Services/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxinyi/Desktop/web_scraper/webscraper_details/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C603A671-5ED1-4B2B-A095-BB995AFDE078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1C33BC-1C17-A94B-BF7A-1D8C90EC7042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{95E71D2A-525B-4270-B4AB-E67765F174BE}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17080" xr2:uid="{95E71D2A-525B-4270-B4AB-E67765F174BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -645,7 +645,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,7 +688,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1022,17 +1022,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287BE940-31B1-4AAC-9254-BF5F2752B81B}">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>96</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>96</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>96</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>96</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>96</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>96</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>96</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>96</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>96</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>96</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>96</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>96</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>96</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>96</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>96</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>96</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -2075,20 +2075,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AB42C8-C922-4E3E-AC8B-CD3E3E2CAD9F}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="133.5" customHeight="1">
+    <row r="2" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -2140,20 +2140,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <p6a2e2bb9ec34a39bb97ebff737aaa7f xmlns="0976170c-25f9-450c-a299-4b309c68ccc7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </p6a2e2bb9ec34a39bb97ebff737aaa7f>
+    <ToArchive xmlns="0976170c-25f9-450c-a299-4b309c68ccc7">false</ToArchive>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="0976170c-25f9-450c-a299-4b309c68ccc7" xsi:nil="true"/>
+    <RestoredTime xmlns="0976170c-25f9-450c-a299-4b309c68ccc7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="813546f4-3126-4e28-8c0b-36c372829904" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007D1FB5B14382434BA524AF3E3D4EF8B2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a4e12bc190ba2b34dad295f4d6131136">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="0976170c-25f9-450c-a299-4b309c68ccc7" xmlns:ns3="1d7e32e9-29f8-4564-b7c9-16578714d9a8" xmlns:ns4="6385526c-5a62-467f-babe-16b74828173b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a24d4fac5d4c06861919726182346f1b" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2420,33 +2421,64 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="813546f4-3126-4e28-8c0b-36c372829904" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <p6a2e2bb9ec34a39bb97ebff737aaa7f xmlns="0976170c-25f9-450c-a299-4b309c68ccc7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </p6a2e2bb9ec34a39bb97ebff737aaa7f>
-    <ToArchive xmlns="0976170c-25f9-450c-a299-4b309c68ccc7">false</ToArchive>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="0976170c-25f9-450c-a299-4b309c68ccc7" xsi:nil="true"/>
-    <RestoredTime xmlns="0976170c-25f9-450c-a299-4b309c68ccc7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E937EF-7927-4FA7-AD62-C95589E529EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10506AD3-AEC7-460B-A04F-A60B5382368F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="0976170c-25f9-450c-a299-4b309c68ccc7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DA5E742-3816-4DDF-9C13-B4FD39B3610C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C023EA35-6EBE-4F77-B5EC-F23B17923D1B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="0976170c-25f9-450c-a299-4b309c68ccc7"/>
+    <ds:schemaRef ds:uri="1d7e32e9-29f8-4564-b7c9-16578714d9a8"/>
+    <ds:schemaRef ds:uri="6385526c-5a62-467f-babe-16b74828173b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C023EA35-6EBE-4F77-B5EC-F23B17923D1B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DA5E742-3816-4DDF-9C13-B4FD39B3610C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10506AD3-AEC7-460B-A04F-A60B5382368F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3E937EF-7927-4FA7-AD62-C95589E529EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>